--- a/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26MT Tank/26results - Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26MT Tank/26results - Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\26MT excel results\26MT Tank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F760339-27E6-42F0-AA94-2ECFD611E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5EFD81-24D1-407B-82A6-E4288B1044E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Poor PerformingMachine Model and Results  for Production Tanks  26MT All Phases</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +395,9 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,7 +405,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30BEE9-A987-4EC0-BD42-596E701BB964}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:K14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -763,18 +769,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
       <c r="A1" s="19"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:20" ht="38.25">
       <c r="A2" s="2" t="s">
@@ -1299,30 +1305,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC6D5B2-A285-478E-9161-2F155444EAB6}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="19"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="38.25">
       <c r="A2" s="2" t="s">
@@ -1355,7 +1361,7 @@
       <c r="J2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1390,7 +1396,9 @@
       <c r="J3" s="23">
         <v>0.98706483312369198</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1417,18 +1425,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="19"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="38.25">
       <c r="A2" s="2" t="s">
@@ -1466,7 +1474,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
